--- a/09-septiembre/6-portal-cliente/tettamanti/TETTAMANTI.xlsx
+++ b/09-septiembre/6-portal-cliente/tettamanti/TETTAMANTI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\08-agosto\6-portal-cliente\tettamanti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\09-septiembre\6-portal-cliente\tettamanti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079C4F26-5CD0-4D17-BEAB-13D6F45BD91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC1D890-1BDD-47B0-9AAB-4AF75F73E9EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
     <t>NO REM</t>
   </si>
   <si>
-    <t>AGOSTO  2025</t>
+    <t>SEPTIEMBRE  2025</t>
   </si>
 </sst>
 </file>
@@ -493,7 +493,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,6 +538,9 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
+      <c r="I5">
+        <v>1348133.98</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A6" s="4" t="s">
@@ -573,32 +576,32 @@
         <v>2</v>
       </c>
       <c r="B7" s="8">
-        <v>623490.44999999995</v>
+        <v>629890.49</v>
       </c>
       <c r="C7" s="8">
         <v>0</v>
       </c>
       <c r="D7" s="8">
         <f>SUM(B7:C7)</f>
-        <v>623490.44999999995</v>
+        <v>629890.49</v>
       </c>
       <c r="E7" s="10">
-        <v>30000</v>
+        <v>58353</v>
       </c>
       <c r="F7" s="10">
         <v>0</v>
       </c>
       <c r="G7" s="10">
         <f>+E7+F7</f>
-        <v>30000</v>
+        <v>58353</v>
       </c>
       <c r="H7" s="6">
         <f>+D7+G7</f>
-        <v>653490.44999999995</v>
+        <v>688243.49</v>
       </c>
       <c r="I7" s="6">
         <f>+H7*2</f>
-        <v>1306980.8999999999</v>
+        <v>1376486.98</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
